--- a/documentacion/Recursos/recurso-reforma/Ficha_educatico-Reforma.xlsx
+++ b/documentacion/Recursos/recurso-reforma/Ficha_educatico-Reforma.xlsx
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="347">
   <si>
     <t>Título</t>
   </si>
@@ -1558,6 +1558,9 @@
   </si>
   <si>
     <t>https://www.mep.go.cr/educatico/recursos-libres-matematica-composicion-funciones</t>
+  </si>
+  <si>
+    <t>duda</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1646,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1677,6 +1680,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,7 +1801,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1934,6 +1943,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3748,10 +3763,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -4607,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4630,24 +4645,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -4764,7 +4779,7 @@
       <c r="R3" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T3" s="26"/>
@@ -4822,7 +4837,7 @@
       <c r="R4" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T4" s="26"/>
@@ -4880,7 +4895,7 @@
       <c r="R5" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T5" s="26"/>
@@ -4936,7 +4951,7 @@
       <c r="R6" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="S6" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T6" s="26"/>
@@ -4992,7 +5007,7 @@
       <c r="R7" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="S7" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T7" s="26"/>
@@ -5048,7 +5063,7 @@
       <c r="R8" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T8" s="26"/>
@@ -5104,7 +5119,7 @@
       <c r="R9" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="S9" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T9" s="26"/>
@@ -5160,7 +5175,7 @@
       <c r="R10" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="S10" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T10" s="26"/>
@@ -5216,7 +5231,7 @@
       <c r="R11" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="S11" s="26" t="s">
+      <c r="S11" s="48" t="s">
         <v>327</v>
       </c>
       <c r="T11" s="26"/>
@@ -5272,7 +5287,7 @@
       <c r="R12" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="S12" s="26"/>
+      <c r="S12" s="48"/>
       <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5326,7 +5341,7 @@
       <c r="R13" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="S13" s="48" t="s">
         <v>327</v>
       </c>
       <c r="T13" s="26"/>
@@ -5382,7 +5397,7 @@
       <c r="R14" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="S14" s="26" t="s">
+      <c r="S14" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T14" s="26"/>
@@ -5438,7 +5453,7 @@
       <c r="R15" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="S15" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T15" s="26"/>
@@ -5494,7 +5509,7 @@
       <c r="R16" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="S16" s="26" t="s">
+      <c r="S16" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T16" s="26"/>
@@ -5550,7 +5565,7 @@
       <c r="R17" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="S17" s="26" t="s">
+      <c r="S17" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T17" s="26"/>
@@ -5606,7 +5621,7 @@
       <c r="R18" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="S18" s="26" t="s">
+      <c r="S18" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T18" s="26"/>
@@ -5662,7 +5677,7 @@
       <c r="R19" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="S19" s="26" t="s">
+      <c r="S19" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T19" s="26" t="s">
@@ -5723,7 +5738,7 @@
       <c r="S20" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="T20" s="26"/>
+      <c r="T20" s="48"/>
     </row>
     <row r="21" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
@@ -5776,7 +5791,7 @@
       <c r="R21" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="S21" s="26" t="s">
+      <c r="S21" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T21" s="26"/>
@@ -5832,7 +5847,7 @@
       <c r="R22" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="S22" s="26" t="s">
+      <c r="S22" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T22" s="26"/>
@@ -5888,7 +5903,7 @@
       <c r="R23" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="S23" s="26" t="s">
+      <c r="S23" s="48" t="s">
         <v>327</v>
       </c>
       <c r="T23" s="26"/>
@@ -5944,7 +5959,7 @@
       <c r="R24" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="S24" s="26" t="s">
+      <c r="S24" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T24" s="26"/>
@@ -6000,7 +6015,7 @@
       <c r="R25" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="S25" s="26" t="s">
+      <c r="S25" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T25" s="26"/>
@@ -6059,7 +6074,9 @@
       <c r="S26" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="T26" s="26"/>
+      <c r="T26" s="48" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
@@ -6112,7 +6129,7 @@
       <c r="R27" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="S27" s="26" t="s">
+      <c r="S27" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T27" s="26"/>
@@ -6168,7 +6185,7 @@
       <c r="R28" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="S28" s="26" t="s">
+      <c r="S28" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T28" s="26"/>
@@ -6224,7 +6241,7 @@
       <c r="R29" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="S29" s="26" t="s">
+      <c r="S29" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T29" s="26"/>
@@ -6280,7 +6297,7 @@
       <c r="R30" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="S30" s="26" t="s">
+      <c r="S30" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T30" s="26"/>
@@ -6336,9 +6353,7 @@
       <c r="R31" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="S31" s="26" t="s">
-        <v>326</v>
-      </c>
+      <c r="S31" s="48"/>
       <c r="T31" s="26"/>
     </row>
     <row r="32" spans="1:20" ht="132" customHeight="1" x14ac:dyDescent="0.2">
@@ -6392,7 +6407,7 @@
       <c r="R32" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="S32" s="26" t="s">
+      <c r="S32" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T32" s="26"/>
@@ -6448,7 +6463,7 @@
       <c r="R33" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="S33" s="26" t="s">
+      <c r="S33" s="48" t="s">
         <v>327</v>
       </c>
       <c r="T33" s="26"/>
@@ -6501,10 +6516,10 @@
       <c r="Q34" s="5">
         <v>11</v>
       </c>
-      <c r="R34" s="41" t="s">
+      <c r="R34" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="S34" s="26" t="s">
+      <c r="S34" s="48" t="s">
         <v>326</v>
       </c>
       <c r="T34" s="26"/>
